--- a/Cockpit/IN_template_ERD.xlsx
+++ b/Cockpit/IN_template_ERD.xlsx
@@ -651,7 +651,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>45961673</v>
+        <v>45961679</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -722,7 +722,7 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>45961673</v>
+        <v>45961679</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -793,7 +793,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>45961673</v>
+        <v>45961679</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -864,7 +864,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>45961673</v>
+        <v>45961679</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -935,7 +935,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>45961673</v>
+        <v>45961679</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>

--- a/Cockpit/IN_template_ERD.xlsx
+++ b/Cockpit/IN_template_ERD.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/003d6ae6d5b78860/Python/Notebooks/SAP/Cockpit/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C0127DD097D9AECF8A160BF40B0759465F727C45" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -199,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,17 +265,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,9 +321,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,9 +355,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,9 +407,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,14 +600,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -717,7 +769,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -788,7 +840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -859,7 +911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -930,7 +982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>

--- a/Cockpit/IN_template_ERD.xlsx
+++ b/Cockpit/IN_template_ERD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/003d6ae6d5b78860/Python/Notebooks/SAP/Cockpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\Python\Notebooks\SAP\Cockpit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_C0127DD097D9AECF8A160BF40B0759465F727C45" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="180" windowWidth="28770" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +138,7 @@
     <t>89036871160</t>
   </si>
   <si>
-    <t>2019-08-29+20:00</t>
+    <t>2019-10-16+20:00</t>
   </si>
   <si>
     <t>2059</t>
@@ -205,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,23 +355,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -408,23 +390,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -600,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +668,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>45961679</v>
+        <v>45962965</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -774,7 +739,7 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>45961679</v>
+        <v>45962965</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -845,7 +810,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>45961679</v>
+        <v>45962965</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -916,7 +881,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>45961679</v>
+        <v>45962965</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -987,7 +952,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>45961679</v>
+        <v>45962965</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
